--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-10828.87899168741</v>
+        <v>-10828.8789916874</v>
       </c>
     </row>
     <row r="7">
@@ -26329,10 +26331,10 @@
         <v>16975.79546489324</v>
       </c>
       <c r="H2" t="n">
+        <v>16975.79546489323</v>
+      </c>
+      <c r="I2" t="n">
         <v>16975.79546489324</v>
-      </c>
-      <c r="I2" t="n">
-        <v>16975.79546489323</v>
       </c>
       <c r="J2" t="n">
         <v>16975.79546489323</v>
@@ -26341,7 +26343,7 @@
         <v>16975.79546489323</v>
       </c>
       <c r="L2" t="n">
-        <v>16975.79546489323</v>
+        <v>16975.79546489324</v>
       </c>
       <c r="M2" t="n">
         <v>16975.79546489323</v>
@@ -26353,7 +26355,7 @@
         <v>16975.79546489323</v>
       </c>
       <c r="P2" t="n">
-        <v>16975.79546489324</v>
+        <v>16975.79546489323</v>
       </c>
     </row>
     <row r="3">
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23927.14544863244</v>
+        <v>-23927.14544863243</v>
       </c>
       <c r="C6" t="n">
-        <v>-23927.14544863244</v>
+        <v>-23927.14544863243</v>
       </c>
       <c r="D6" t="n">
         <v>-23927.14544863244</v>
       </c>
       <c r="E6" t="n">
-        <v>9700.454551367558</v>
+        <v>9700.454551367562</v>
       </c>
       <c r="F6" t="n">
-        <v>9700.454551367558</v>
+        <v>9700.454551367562</v>
       </c>
       <c r="G6" t="n">
         <v>9700.454551367566</v>
       </c>
       <c r="H6" t="n">
+        <v>9700.454551367562</v>
+      </c>
+      <c r="I6" t="n">
         <v>9700.454551367566</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9700.454551367562</v>
       </c>
       <c r="J6" t="n">
         <v>9700.454551367562</v>
@@ -26549,19 +26551,19 @@
         <v>9700.454551367562</v>
       </c>
       <c r="L6" t="n">
-        <v>9700.454551367562</v>
+        <v>9700.454551367566</v>
       </c>
       <c r="M6" t="n">
         <v>9700.454551367562</v>
       </c>
       <c r="N6" t="n">
-        <v>9700.454551367562</v>
+        <v>9700.454551367558</v>
       </c>
       <c r="O6" t="n">
         <v>9700.454551367562</v>
       </c>
       <c r="P6" t="n">
-        <v>9700.454551367566</v>
+        <v>9700.454551367562</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-10828.8789916874</v>
+        <v>-22427.722953558</v>
       </c>
     </row>
     <row r="7">
@@ -26334,7 +26334,7 @@
         <v>16975.79546489323</v>
       </c>
       <c r="I2" t="n">
-        <v>16975.79546489324</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="J2" t="n">
         <v>16975.79546489323</v>
@@ -26343,13 +26343,13 @@
         <v>16975.79546489323</v>
       </c>
       <c r="L2" t="n">
-        <v>16975.79546489324</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="M2" t="n">
         <v>16975.79546489323</v>
       </c>
       <c r="N2" t="n">
-        <v>16975.79546489323</v>
+        <v>16975.79546489324</v>
       </c>
       <c r="O2" t="n">
         <v>16975.79546489323</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23927.14544863243</v>
+        <v>-25313.45801517282</v>
       </c>
       <c r="C6" t="n">
-        <v>-23927.14544863243</v>
+        <v>-25313.45801517282</v>
       </c>
       <c r="D6" t="n">
-        <v>-23927.14544863244</v>
+        <v>-25313.45801517282</v>
       </c>
       <c r="E6" t="n">
-        <v>9700.454551367562</v>
+        <v>8314.141984827182</v>
       </c>
       <c r="F6" t="n">
-        <v>9700.454551367562</v>
+        <v>8314.141984827182</v>
       </c>
       <c r="G6" t="n">
-        <v>9700.454551367566</v>
+        <v>8314.141984827185</v>
       </c>
       <c r="H6" t="n">
-        <v>9700.454551367562</v>
+        <v>8314.141984827182</v>
       </c>
       <c r="I6" t="n">
-        <v>9700.454551367566</v>
+        <v>8314.141984827182</v>
       </c>
       <c r="J6" t="n">
-        <v>9700.454551367562</v>
+        <v>8314.141984827182</v>
       </c>
       <c r="K6" t="n">
-        <v>9700.454551367562</v>
+        <v>8314.141984827182</v>
       </c>
       <c r="L6" t="n">
-        <v>9700.454551367566</v>
+        <v>8314.141984827182</v>
       </c>
       <c r="M6" t="n">
-        <v>9700.454551367562</v>
+        <v>8314.141984827182</v>
       </c>
       <c r="N6" t="n">
-        <v>9700.454551367558</v>
+        <v>8314.141984827185</v>
       </c>
       <c r="O6" t="n">
-        <v>9700.454551367562</v>
+        <v>8314.141984827182</v>
       </c>
       <c r="P6" t="n">
-        <v>9700.454551367562</v>
+        <v>8314.141984827182</v>
       </c>
     </row>
   </sheetData>
